--- a/data/trans_orig/P21D_2_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D_2_R-Edad-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12111</v>
+        <v>11721</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01098401810565681</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05745848766756502</v>
+        <v>0.05560577403019575</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -762,19 +762,19 @@
         <v>5464</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1194</v>
+        <v>1202</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15158</v>
+        <v>15664</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03352466355961276</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00732558755678387</v>
+        <v>0.007377669754915024</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0930054824887187</v>
+        <v>0.09610702946935887</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -783,19 +783,19 @@
         <v>7779</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2316</v>
+        <v>2344</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18271</v>
+        <v>19447</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02081311730714594</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006196737464377425</v>
+        <v>0.006270569938024717</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04888287203228741</v>
+        <v>0.05202995994322169</v>
       </c>
     </row>
     <row r="5">
@@ -812,7 +812,7 @@
         <v>208466</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>198670</v>
+        <v>199060</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>210781</v>
@@ -821,7 +821,7 @@
         <v>0.9890159818943433</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.942541512332435</v>
+        <v>0.9443942259698045</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -833,19 +833,19 @@
         <v>157521</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>147827</v>
+        <v>147321</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>161791</v>
+        <v>161783</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9664753364403873</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9069945175112814</v>
+        <v>0.9038929705306412</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9926744124432163</v>
+        <v>0.9926223302450851</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>174</v>
@@ -854,19 +854,19 @@
         <v>365987</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>355495</v>
+        <v>354319</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>371450</v>
+        <v>371422</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9791868826928541</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9511171279677127</v>
+        <v>0.9479700400567784</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9938032625356227</v>
+        <v>0.9937294300619753</v>
       </c>
     </row>
     <row r="6">
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8344</v>
+        <v>7783</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01056276512124476</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0367877394089601</v>
+        <v>0.03431593610193619</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -979,19 +979,19 @@
         <v>5630</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2549</v>
+        <v>1926</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11786</v>
+        <v>11292</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02263875550706196</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01025062643083015</v>
+        <v>0.007743779459237298</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04739604951451598</v>
+        <v>0.04540856788596241</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -1000,19 +1000,19 @@
         <v>8026</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3785</v>
+        <v>3242</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15166</v>
+        <v>15364</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01687843407225683</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007960598992551854</v>
+        <v>0.006818172838418678</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03189579411317244</v>
+        <v>0.03231162061237161</v>
       </c>
     </row>
     <row r="8">
@@ -1029,16 +1029,16 @@
         <v>224417</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>218469</v>
+        <v>219030</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>226813</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9894372348787552</v>
+        <v>0.9894372348787553</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9632122605910398</v>
+        <v>0.9656840638980644</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1050,19 +1050,19 @@
         <v>243050</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>236894</v>
+        <v>237388</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>246131</v>
+        <v>246754</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9773612444929382</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9526039504854843</v>
+        <v>0.9545914321140375</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9897493735691698</v>
+        <v>0.9922562205407627</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>364</v>
@@ -1071,19 +1071,19 @@
         <v>467466</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>460326</v>
+        <v>460128</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>471707</v>
+        <v>472250</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9831215659277431</v>
+        <v>0.9831215659277432</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9681042058868277</v>
+        <v>0.9676883793876283</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9920394010074481</v>
+        <v>0.9931818271615812</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>6829</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2823</v>
+        <v>2856</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13228</v>
+        <v>13214</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.02704289041778231</v>
+        <v>0.0270428904177823</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01117878965823318</v>
+        <v>0.01131098303670857</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05238384667445758</v>
+        <v>0.05232815221530495</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -1199,16 +1199,16 @@
         <v>3289</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13556</v>
+        <v>12096</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0230833715391009</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01108778618869651</v>
+        <v>0.0110883132258969</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0456978399633937</v>
+        <v>0.04077667333714506</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -1217,19 +1217,19 @@
         <v>13676</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8369</v>
+        <v>7765</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22062</v>
+        <v>21416</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.02490408063981491</v>
+        <v>0.02490408063981492</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01523958809332889</v>
+        <v>0.01414029257368097</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04017509655796013</v>
+        <v>0.0389990973620617</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>245689</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>239290</v>
+        <v>239304</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>249695</v>
+        <v>249662</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9729571095822178</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9476161533255421</v>
+        <v>0.9476718477846949</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9888212103417668</v>
+        <v>0.9886890169632915</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>386</v>
@@ -1267,19 +1267,19 @@
         <v>289788</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>283079</v>
+        <v>284539</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>293346</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.976916628460899</v>
+        <v>0.9769166284608988</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9543021600366064</v>
+        <v>0.9592233266628545</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9889122138113036</v>
+        <v>0.9889116867741029</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>601</v>
@@ -1288,19 +1288,19 @@
         <v>535477</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>527091</v>
+        <v>527737</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>540784</v>
+        <v>541388</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.975095919360185</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9598249034420399</v>
+        <v>0.9610009026379378</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.984760411906671</v>
+        <v>0.9858597074263188</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>10669</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5860</v>
+        <v>5604</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18671</v>
+        <v>18327</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.0336478975956312</v>
+        <v>0.03364789759563121</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01848246092330517</v>
+        <v>0.01767490701879728</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05888677545331315</v>
+        <v>0.05780303249713201</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -1413,19 +1413,19 @@
         <v>6440</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3300</v>
+        <v>3155</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11823</v>
+        <v>11585</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.01862414718035455</v>
+        <v>0.01862414718035454</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.009543164368511556</v>
+        <v>0.00912443967243729</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03418861509139623</v>
+        <v>0.03350004431575286</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>21</v>
@@ -1434,19 +1434,19 @@
         <v>17109</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10927</v>
+        <v>11119</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>25990</v>
+        <v>26025</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.02581033243596179</v>
+        <v>0.02581033243596178</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01648435999736934</v>
+        <v>0.01677452232203558</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03920815762750252</v>
+        <v>0.03926111054676885</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>306399</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>298397</v>
+        <v>298741</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>311208</v>
+        <v>311464</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9663521024043686</v>
+        <v>0.9663521024043688</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.941113224546687</v>
+        <v>0.9421969675028681</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9815175390766949</v>
+        <v>0.9823250929812029</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>518</v>
@@ -1484,19 +1484,19 @@
         <v>339368</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>333985</v>
+        <v>334223</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>342508</v>
+        <v>342653</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9813758528196456</v>
+        <v>0.9813758528196455</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9658113849086043</v>
+        <v>0.9664999556842472</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9904568356314885</v>
+        <v>0.9908755603275625</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>803</v>
@@ -1505,19 +1505,19 @@
         <v>645766</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>636885</v>
+        <v>636850</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>651948</v>
+        <v>651756</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9741896675640382</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9607918423724974</v>
+        <v>0.9607388894532313</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9835156400026306</v>
+        <v>0.9832254776779644</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>9482</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4834</v>
+        <v>5539</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16958</v>
+        <v>17945</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03682497693929099</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01877235928037606</v>
+        <v>0.02151353559242508</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.065861979412524</v>
+        <v>0.06969475257008965</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>20</v>
@@ -1630,19 +1630,19 @@
         <v>11807</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7637</v>
+        <v>7291</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18071</v>
+        <v>17459</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04645141833505999</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03004782600952055</v>
+        <v>0.02868431984822613</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07109523045429615</v>
+        <v>0.06868776696416874</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>31</v>
@@ -1651,19 +1651,19 @@
         <v>21289</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14590</v>
+        <v>14017</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>30412</v>
+        <v>29050</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04160710678602317</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02851520199816478</v>
+        <v>0.02739604031296312</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05943846246386963</v>
+        <v>0.0567762422472689</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>247999</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>240523</v>
+        <v>239536</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>252647</v>
+        <v>251942</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9631750230607091</v>
+        <v>0.963175023060709</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9341380205874759</v>
+        <v>0.9303052474299103</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.981227640719624</v>
+        <v>0.9784864644075748</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>391</v>
@@ -1701,19 +1701,19 @@
         <v>242369</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>236105</v>
+        <v>236717</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>246539</v>
+        <v>246885</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9535485816649401</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9289047695457038</v>
+        <v>0.9313122330358313</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9699521739904795</v>
+        <v>0.9713156801517739</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>658</v>
@@ -1722,19 +1722,19 @@
         <v>490368</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>481245</v>
+        <v>482607</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>497067</v>
+        <v>497640</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9583928932139769</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9405615375361305</v>
+        <v>0.9432237577527312</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9714847980018357</v>
+        <v>0.9726039596870369</v>
       </c>
     </row>
     <row r="18">
@@ -1829,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6490</v>
+        <v>6453</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01063531348032763</v>
@@ -1838,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03728949184402248</v>
+        <v>0.03707428343538891</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -1847,19 +1847,19 @@
         <v>2308</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>676</v>
+        <v>689</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5412</v>
+        <v>5739</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0115636838200372</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003388461383783065</v>
+        <v>0.003450455673820221</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02711961698806385</v>
+        <v>0.02875663749482085</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -1868,19 +1868,19 @@
         <v>4159</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1659</v>
+        <v>1836</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8708</v>
+        <v>9127</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.01113120372182889</v>
+        <v>0.01113120372182888</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.004441604422051462</v>
+        <v>0.004913367117936963</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02330620429042123</v>
+        <v>0.02442872288554593</v>
       </c>
     </row>
     <row r="20">
@@ -1897,16 +1897,16 @@
         <v>172202</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>167563</v>
+        <v>167600</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>174053</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9893646865196724</v>
+        <v>0.9893646865196725</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9627105081559777</v>
+        <v>0.9629257165646109</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1918,19 +1918,19 @@
         <v>197265</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>194161</v>
+        <v>193834</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>198897</v>
+        <v>198884</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9884363161799627</v>
+        <v>0.9884363161799629</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9728803830119358</v>
+        <v>0.9712433625051792</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.996611538616217</v>
+        <v>0.9965495443261798</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>611</v>
@@ -1939,19 +1939,19 @@
         <v>369467</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>364918</v>
+        <v>364499</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>371967</v>
+        <v>371790</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9888687962781713</v>
+        <v>0.988868796278171</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9766937957095787</v>
+        <v>0.9755712771144542</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9955583955779483</v>
+        <v>0.9950866328820631</v>
       </c>
     </row>
     <row r="21">
@@ -2059,16 +2059,16 @@
         <v>567</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>4874</v>
+        <v>5152</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01102379382637789</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.003037562350050503</v>
+        <v>0.003036470064768437</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02609889278394948</v>
+        <v>0.02758677438284854</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4</v>
@@ -2077,19 +2077,19 @@
         <v>2059</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4850</v>
+        <v>5269</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.006508526252138531</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.001808955158976816</v>
+        <v>0.001782366924550275</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01533267475409075</v>
+        <v>0.01665786604562148</v>
       </c>
     </row>
     <row r="23">
@@ -2119,7 +2119,7 @@
         <v>184696</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>181881</v>
+        <v>181603</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>186188</v>
@@ -2128,10 +2128,10 @@
         <v>0.9889762061736221</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9739011072160508</v>
+        <v>0.9724132256171516</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9969624376499495</v>
+        <v>0.9969635299352316</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>533</v>
@@ -2140,19 +2140,19 @@
         <v>314257</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>311466</v>
+        <v>311047</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>315744</v>
+        <v>315752</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9934914737478615</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9846673252459099</v>
+        <v>0.9833421339543792</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9981910448410232</v>
+        <v>0.9982176330754498</v>
       </c>
     </row>
     <row r="24">
@@ -2244,19 +2244,19 @@
         <v>33541</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>22911</v>
+        <v>23925</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>47986</v>
+        <v>47379</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02138739743200314</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01460916990036885</v>
+        <v>0.01525562204858178</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03059811407277426</v>
+        <v>0.03021109082032805</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>56</v>
@@ -2265,19 +2265,19 @@
         <v>40555</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>30554</v>
+        <v>30516</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>53748</v>
+        <v>54238</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02393168275672912</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01802994238425104</v>
+        <v>0.01800778550526659</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0317171778097487</v>
+        <v>0.03200643812850464</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>90</v>
@@ -2286,19 +2286,19 @@
         <v>74096</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>59943</v>
+        <v>58066</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>92723</v>
+        <v>92806</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.02270879692959297</v>
+        <v>0.02270879692959296</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01837119975296615</v>
+        <v>0.01779602793129704</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02841750501098507</v>
+        <v>0.02844298010347283</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>1534733</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1520288</v>
+        <v>1520895</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1545363</v>
+        <v>1544349</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9786126025679969</v>
+        <v>0.978612602567997</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9694018859272256</v>
+        <v>0.9697889091796719</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9853908300996311</v>
+        <v>0.9847443779514182</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2318</v>
@@ -2336,19 +2336,19 @@
         <v>1654056</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1640863</v>
+        <v>1640373</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1664057</v>
+        <v>1664095</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.976068317243271</v>
+        <v>0.9760683172432709</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.968282822190252</v>
+        <v>0.9679935618714953</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.981970057615749</v>
+        <v>0.9819922144947333</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3744</v>
@@ -2357,19 +2357,19 @@
         <v>3188789</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3170162</v>
+        <v>3170079</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3202942</v>
+        <v>3204819</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9772912030704072</v>
+        <v>0.977291203070407</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9715824949890151</v>
+        <v>0.9715570198965272</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.981628800247034</v>
+        <v>0.9822039720687028</v>
       </c>
     </row>
     <row r="27">
